--- a/Utiles/Saraos OSL.xlsx
+++ b/Utiles/Saraos OSL.xlsx
@@ -2046,7 +2046,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="B2:N14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
